--- a/OYM/_Documentos Comunes/Taller_Participantes.xlsx
+++ b/OYM/_Documentos Comunes/Taller_Participantes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Nombre</t>
   </si>
@@ -51,6 +51,30 @@
   </si>
   <si>
     <t>16-MIIN-1-107</t>
+  </si>
+  <si>
+    <t>Jhonatan Caceres Garcia</t>
+  </si>
+  <si>
+    <t>06-MIIN-1-013</t>
+  </si>
+  <si>
+    <t>Luis Miguel Encarnacion</t>
+  </si>
+  <si>
+    <t>13-MIIN-1-031</t>
+  </si>
+  <si>
+    <t>Jose Luis Perez Ramirez</t>
+  </si>
+  <si>
+    <t>15-EISN-1-184</t>
+  </si>
+  <si>
+    <t>Starlin Roberto de la Cruz Corcino</t>
+  </si>
+  <si>
+    <t>15-SIST-1-087</t>
   </si>
 </sst>
 </file>
@@ -375,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C5"/>
+  <dimension ref="A2:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,8 +449,55 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
+      <c r="B5">
+        <v>8094536184</v>
+      </c>
       <c r="C5" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>8298824918</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>8298746753</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>8298811831</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>8299742731</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/OYM/_Documentos Comunes/Taller_Participantes.xlsx
+++ b/OYM/_Documentos Comunes/Taller_Participantes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Nombre</t>
   </si>
@@ -75,6 +75,36 @@
   </si>
   <si>
     <t>15-SIST-1-087</t>
+  </si>
+  <si>
+    <t>13-EIST-1-093</t>
+  </si>
+  <si>
+    <t>Jennifer  Peña</t>
+  </si>
+  <si>
+    <t>Andreina Ramos Marte</t>
+  </si>
+  <si>
+    <t>09-SISN-1-236</t>
+  </si>
+  <si>
+    <t>Juan Uribe</t>
+  </si>
+  <si>
+    <t>Luz Soto</t>
+  </si>
+  <si>
+    <t>Alexis Reyes</t>
+  </si>
+  <si>
+    <t>Cleivy M. Hernandez Florentino</t>
+  </si>
+  <si>
+    <t>16-SIIT-1-062</t>
+  </si>
+  <si>
+    <t>16-SIIT-1-085</t>
   </si>
 </sst>
 </file>
@@ -399,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C9"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,92 +442,143 @@
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>8293826043</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>8293826043</v>
+        <v>8492709735</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>8492709735</v>
+        <v>8094536184</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>8094536184</v>
+        <v>8298824918</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>8298824918</v>
+        <v>8298746753</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>8298746753</v>
+        <v>8298811831</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>8298811831</v>
+        <v>8299742731</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>8299742731</v>
+        <v>8099672454</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>8295209980</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>8297077277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/OYM/_Documentos Comunes/Taller_Participantes.xlsx
+++ b/OYM/_Documentos Comunes/Taller_Participantes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Nombre</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>16-SIIT-1-085</t>
+  </si>
+  <si>
+    <t>16-MIIT-1-037</t>
   </si>
 </sst>
 </file>
@@ -432,7 +435,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +560,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -566,6 +569,9 @@
       </c>
       <c r="B12">
         <v>8297077277</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">

--- a/OYM/_Documentos Comunes/Taller_Participantes.xlsx
+++ b/OYM/_Documentos Comunes/Taller_Participantes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Nombre</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>16-MIIT-1-037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engel Acosta </t>
+  </si>
+  <si>
+    <t>16-SIIN-1-095</t>
   </si>
 </sst>
 </file>
@@ -432,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,6 +593,17 @@
         <v>25</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>8298927758</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
